--- a/Config/星恋挑战.xlsx
+++ b/Config/星恋挑战.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="991" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="991" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -1115,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1184,43 +1184,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,8 +1206,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,7 +1228,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,7 +1258,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,6 +1299,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1299,29 +1322,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1406,13 +1406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,43 +1430,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,7 +1484,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,19 +1550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,61 +1562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,13 +1580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,39 +1615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1665,10 +1632,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1685,6 +1650,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,6 +1687,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1717,138 +1717,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3691,8 +3691,8 @@
   <sheetPr/>
   <dimension ref="A1:J687"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3751,7 +3751,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="11">
-        <v>2502</v>
+        <v>454555</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>325</v>
@@ -31149,7 +31149,7 @@
   <sheetPr/>
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
